--- a/generated_output/temp/us-core-ethnicity.xlsx
+++ b/generated_output/temp/us-core-ethnicity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="92">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -176,7 +176,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -227,7 +227,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -240,9 +240,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="ombCategory"/&gt;</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -252,7 +249,7 @@
     <t>Extension.extension.valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>The 41 CDC ethnicity codes that are grouped under one of the 2 OMB ethnicity category codes.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="detailed"/&gt;</t>
-  </si>
-  <si>
     <t>The 41 [CDC ethnicity codes](http://www.cdc.gov/phin/resources/vocabulary/index.html) that are grouped under one of the 2 OMB ethnicity category codes.</t>
   </si>
   <si>
@@ -298,17 +292,14 @@
     <t>Plain text representation of the ethnicity concept(s).</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="text"/&gt;</t>
-  </si>
-  <si>
     <t>Extension.extension.valueString</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity"/&gt;</t>
-  </si>
-  <si>
-    <t>base64Binary {[]} {[]}
-boolean {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}Meta {[]} {[]}</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
   </si>
 </sst>
 </file>
@@ -361,67 +352,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1258,69 +1249,69 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1343,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1376,32 +1367,32 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
         <v>60</v>
       </c>
       <c r="Y9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Z9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1423,7 +1414,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1448,10 +1439,10 @@
         <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1764,7 +1755,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1806,27 +1797,27 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1849,13 +1840,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1882,13 +1873,13 @@
         <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>37</v>
@@ -1906,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1921,7 +1912,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1929,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
@@ -1954,10 +1945,10 @@
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2270,7 +2261,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>37</v>
@@ -2312,27 +2303,27 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2358,10 +2349,10 @@
         <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2412,7 +2403,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2427,12 +2418,12 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2472,7 +2463,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
@@ -2514,27 +2505,27 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2557,13 +2548,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2614,7 +2605,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2629,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
